--- a/GridSearchResults/Hyperparameters_NTSK-wRLS_Alice_91_Site_1A_Trina_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-wRLS_Alice_91_Site_1A_Trina_Power.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -482,17 +482,19 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5837428749683379</v>
+        <v>0.583742874968333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9136632977598776</v>
+        <v>0.91366329775987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.443277040199411</v>
+        <v>0.4432770401993955</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -510,17 +512,19 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>0.6214409051753501</v>
+        <v>0.6006135306643204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9726675410234181</v>
+        <v>0.9400689286969558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4593460041005362</v>
+        <v>0.4402012523586422</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -538,17 +542,19 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5945689130580638</v>
+        <v>0.6105814570578396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9306080076430938</v>
+        <v>0.9556705383971589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4369264841935299</v>
+        <v>0.4476196617151584</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
@@ -566,17 +572,19 @@
       <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6020649122710104</v>
+        <v>0.6107120677515414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9423406037133718</v>
+        <v>0.9558749677825056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4417355823639055</v>
+        <v>0.4439276615381161</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -594,17 +602,19 @@
       <c r="C6" t="n">
         <v>13</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5975785072551386</v>
+        <v>0.6188385693889552</v>
       </c>
       <c r="F6" t="n">
-        <v>0.935318567509315</v>
+        <v>0.9685944143122697</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4369640885398481</v>
+        <v>0.4512064125777673</v>
       </c>
       <c r="H6" t="n">
         <v>13</v>
@@ -622,17 +632,19 @@
       <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6023327080331969</v>
+        <v>0.6011913677208365</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9427597525710237</v>
+        <v>0.9409733483194701</v>
       </c>
       <c r="G7" t="n">
-        <v>0.439490027160981</v>
+        <v>0.4317214492146695</v>
       </c>
       <c r="H7" t="n">
         <v>16</v>
@@ -650,17 +662,19 @@
       <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wRLS</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5960235929417392</v>
+        <v>0.6072803699247673</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9328848450602116</v>
+        <v>0.9505037393054199</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4385358720826659</v>
+        <v>0.4414358087026513</v>
       </c>
       <c r="H8" t="n">
         <v>19</v>
